--- a/docs/demo.xlsx
+++ b/docs/demo.xlsx
@@ -10,13 +10,40 @@
     <sheet name="基本信息" sheetId="1" r:id="rId1"/>
     <sheet name="团队信息" sheetId="2" r:id="rId2"/>
     <sheet name="行程信息" sheetId="3" r:id="rId3"/>
+    <sheet name="饭店(请勿更改)" sheetId="6" r:id="rId4"/>
+    <sheet name="住宿(请勿更改)" sheetId="9" r:id="rId5"/>
+    <sheet name="景点(请勿更改)" sheetId="8" r:id="rId6"/>
+    <sheet name="购物点(请勿更改)" sheetId="10" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="二级">#REF!</definedName>
+    <definedName name="杭州">'饭店(请勿更改)'!#REF!</definedName>
+    <definedName name="杭州饭店">'饭店(请勿更改)'!$A:$A</definedName>
+    <definedName name="杭州购物点">'购物点(请勿更改)'!$A:$A</definedName>
+    <definedName name="杭州景点">'景点(请勿更改)'!$A:$A</definedName>
+    <definedName name="杭州住宿">'住宿(请勿更改)'!$A:$A</definedName>
+    <definedName name="丽水饭店">'饭店(请勿更改)'!$D:$D</definedName>
+    <definedName name="丽水购物点">'购物点(请勿更改)'!$D:$D</definedName>
+    <definedName name="丽水景点">'景点(请勿更改)'!$D:$D</definedName>
+    <definedName name="宁波饭店">'饭店(请勿更改)'!$B:$B</definedName>
+    <definedName name="宁波购物点">'购物点(请勿更改)'!$B:$B</definedName>
+    <definedName name="宁波景点">'景点(请勿更改)'!$B:$B</definedName>
+    <definedName name="三级">#REF!</definedName>
+    <definedName name="台州饭店">'饭店(请勿更改)'!$E:$E</definedName>
+    <definedName name="台州购物点">'购物点(请勿更改)'!$E:$E</definedName>
+    <definedName name="台州景点">'景点(请勿更改)'!$E:$E</definedName>
+    <definedName name="台州住宿">'住宿(请勿更改)'!$E:$E</definedName>
+    <definedName name="温州饭店">'饭店(请勿更改)'!$C:$C</definedName>
+    <definedName name="温州购物点">'购物点(请勿更改)'!$C:$C</definedName>
+    <definedName name="温州景点">'景点(请勿更改)'!$C:$C</definedName>
+    <definedName name="一级">#REF!</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
   <si>
     <t>身份证号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,11 +109,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>导游证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车牌号</t>
+    <t>330381199012345000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>330388126549874652</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>330381199012345333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>330381199012345444</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DY0020032</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外婆家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上车集合点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返程点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武林广场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄龙旅游集散中心/吴山广场正大门/武林广场浙江展览馆北门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -94,107 +193,139 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>330381199012345000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>330388126549874652</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>330381199012345333</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>330381199012345444</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DY0020032</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>早餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>楼外楼餐厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西湖人家</t>
+    <t>地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州</t>
+  </si>
+  <si>
+    <t>杭州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丽水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台州</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>外婆家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住宿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西湖/雷峰塔/灵隐寺/西溪湿地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西溪1号/西溪酒店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>景点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上车集合点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返程点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武林广场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄龙旅游集散中心/吴山广场正大门/武林广场浙江展览馆北门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>儿童</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
+  </si>
+  <si>
+    <t>西湖</t>
+  </si>
+  <si>
+    <t>雷峰塔</t>
+  </si>
+  <si>
+    <t>西溪湿地</t>
+  </si>
+  <si>
+    <t>灵隐寺</t>
+  </si>
+  <si>
+    <t>景点1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景点2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景点3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景点4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景点5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物点1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物点2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物点3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物点4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物点5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宿1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宿2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西溪壹号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希尔顿酒店</t>
+  </si>
+  <si>
+    <t>希尔顿酒店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如家快捷酒店</t>
+  </si>
+  <si>
+    <t>如家快捷酒店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外公家</t>
+  </si>
+  <si>
+    <t>外公家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妈妈家</t>
+  </si>
+  <si>
+    <t>妈妈家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州丝绸土特产</t>
+  </si>
+  <si>
+    <t>杭州丝绸土特产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙井茶旗舰店</t>
+  </si>
+  <si>
+    <t>龙井茶旗舰店</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -202,7 +333,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +348,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -241,11 +379,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -544,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -566,22 +707,22 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -604,10 +745,10 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -619,10 +760,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -632,12 +773,12 @@
     <col min="5" max="5" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -646,18 +787,15 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -665,16 +803,16 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>18954657465</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -682,16 +820,16 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>18954657222</v>
       </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -699,13 +837,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>18954657333</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -713,7 +851,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>18954657444</v>
@@ -728,68 +866,375 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
-    <col min="3" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="18.25" customWidth="1"/>
-    <col min="6" max="6" width="35.5" customWidth="1"/>
-    <col min="7" max="7" width="17.125" customWidth="1"/>
-    <col min="8" max="8" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="9.125" customWidth="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="7.875" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="12.25" customWidth="1"/>
+    <col min="8" max="8" width="7.75" customWidth="1"/>
+    <col min="9" max="9" width="9.625" customWidth="1"/>
+    <col min="10" max="11" width="9.375" customWidth="1"/>
+    <col min="12" max="12" width="8.5" customWidth="1"/>
+    <col min="13" max="14" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>10.1</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+      <formula1>"杭州,宁波,温州,台州,丽水"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
+      <formula1>INDIRECT(B1&amp;"景点")</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+      <formula1>INDIRECT(B1&amp;"饭店")</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+      <formula1>INDIRECT(B1&amp;"饭店")</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+      <formula1>INDIRECT(B1&amp;"饭店")</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+      <formula1>INDIRECT(B1&amp;"住宿")</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+      <formula1>INDIRECT(B1&amp;"住宿")</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
+      <formula1>INDIRECT(B1&amp;"景点")</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
+      <formula1>INDIRECT(B1&amp;"景点")</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576">
+      <formula1>INDIRECT(B1&amp;"景点")</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576">
+      <formula1>INDIRECT(B1&amp;"景点")</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
+      <formula1>INDIRECT(B1&amp;"购物点")</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576">
+      <formula1>INDIRECT(B1&amp;"购物点")</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
+      <formula1>INDIRECT(B1&amp;"购物点")</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P1048576">
+      <formula1>INDIRECT(B1&amp;"购物点")</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q1048576">
+      <formula1>INDIRECT(B1&amp;"购物点")</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/demo.xlsx
+++ b/docs/demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
   <si>
     <t>身份证号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -278,9 +278,6 @@
   </si>
   <si>
     <t>如家快捷酒店</t>
-  </si>
-  <si>
-    <t>如家快捷酒店</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -338,6 +335,13 @@
   </si>
   <si>
     <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香格里拉宾馆</t>
+  </si>
+  <si>
+    <t>香格里拉宾馆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -706,7 +710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B31" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -727,10 +731,10 @@
         <v>10</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D1" t="s">
         <v>28</v>
@@ -897,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -976,10 +980,10 @@
         <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
         <v>42</v>
@@ -988,25 +992,25 @@
         <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I2" t="s">
         <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1079,7 +1083,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1108,12 +1112,12 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1125,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1162,7 +1166,12 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1200,7 +1209,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1210,12 +1219,12 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1254,12 +1263,12 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/docs/demo.xlsx
+++ b/docs/demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="811"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息" sheetId="1" r:id="rId1"/>
@@ -93,10 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>火星旅游团</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>全陪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -324,24 +320,29 @@
   </si>
   <si>
     <t>西溪湿地(非诚勿扰拍摄地)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香格里拉宾馆</t>
+  </si>
+  <si>
+    <t>香格里拉宾馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>西溪湿地(非诚勿扰拍摄地)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香格里拉宾馆</t>
-  </si>
-  <si>
-    <t>香格里拉宾馆</t>
+    <t>水星旅游团</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -710,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -721,7 +722,7 @@
     <col min="3" max="3" width="14.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="7.375" customWidth="1"/>
     <col min="5" max="6" width="7.25" customWidth="1"/>
-    <col min="7" max="7" width="5.625" customWidth="1"/>
+    <col min="7" max="7" width="6.375" customWidth="1"/>
     <col min="8" max="8" width="57.5" customWidth="1"/>
     <col min="9" max="9" width="13.25" customWidth="1"/>
   </cols>
@@ -731,42 +732,42 @@
         <v>10</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
         <v>11</v>
       </c>
       <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" t="s">
-        <v>30</v>
-      </c>
       <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
         <v>24</v>
-      </c>
-      <c r="I1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="B2" s="4">
-        <v>41183</v>
+        <v>41196</v>
       </c>
       <c r="C2" s="3">
-        <v>41189</v>
+        <v>41199</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -778,10 +779,10 @@
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -796,7 +797,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -808,10 +809,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
         <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -820,12 +821,12 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -836,13 +837,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>18954657465</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -853,13 +854,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>18954657222</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -870,7 +871,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>18954657333</v>
@@ -884,7 +885,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>18954657444</v>
@@ -901,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -921,104 +922,104 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
       <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" t="s">
-        <v>55</v>
-      </c>
       <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
         <v>44</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>45</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>46</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>47</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>48</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>49</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>50</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>51</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>52</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2">
-        <v>10.1</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" t="s">
         <v>42</v>
       </c>
-      <c r="F2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>76</v>
       </c>
-      <c r="H2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" t="s">
-        <v>72</v>
-      </c>
       <c r="K2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3">
-        <v>10.199999999999999</v>
+        <v>10.14</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1083,41 +1084,41 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1139,39 +1140,39 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1192,39 +1193,39 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1246,29 +1247,29 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
